--- a/Files/employee.xlsx
+++ b/Files/employee.xlsx
@@ -164,7 +164,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,7 +189,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
@@ -203,164 +203,84 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
